--- a/PentagonWorkspace/DGA DATASET EXCCEL.xlsx
+++ b/PentagonWorkspace/DGA DATASET EXCCEL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11295" windowHeight="4560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="14">
   <si>
     <t>Inspected fault</t>
   </si>
@@ -58,12 +58,25 @@
   <si>
     <t>PD</t>
   </si>
+  <si>
+    <t>T2/T1</t>
+  </si>
+  <si>
+    <t>T1/T2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +105,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,16 +451,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -626,7 +647,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>224</v>
@@ -686,7 +707,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>470</v>
@@ -706,7 +727,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>65</v>
@@ -726,7 +747,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>53</v>
@@ -778,7 +799,7 @@
         <v>47</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -798,7 +819,7 @@
         <v>30</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -849,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="C22">
         <v>0.3</v>
@@ -866,7 +887,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1189,19 +1210,19 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="C39">
         <v>6.4</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="E39">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F39">
-        <v>30</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1375,10 +1396,10 @@
         <v>16.3</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F48">
         <v>2.4</v>
@@ -1389,10 +1410,10 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <v>112</v>
+        <v>111.7</v>
       </c>
       <c r="C49">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="D49">
         <v>19.399999999999999</v>
@@ -1532,10 +1553,10 @@
         <v>88.7</v>
       </c>
       <c r="C56">
-        <v>95</v>
+        <v>94.9</v>
       </c>
       <c r="D56">
-        <v>461</v>
+        <v>460.8</v>
       </c>
       <c r="E56">
         <v>184.6</v>
@@ -1652,13 +1673,13 @@
         <v>92600</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>10200</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1755,7 +1776,7 @@
         <v>1060</v>
       </c>
       <c r="D67">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2152,7 +2173,7 @@
         <v>6454</v>
       </c>
       <c r="C87">
-        <v>1221</v>
+        <v>121</v>
       </c>
       <c r="D87">
         <v>2313</v>
@@ -2252,7 +2273,7 @@
         <v>1900</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D92">
         <v>285</v>
@@ -2475,7 +2496,7 @@
         <v>32</v>
       </c>
       <c r="D103">
-        <v>2299</v>
+        <v>229</v>
       </c>
       <c r="E103">
         <v>404</v>
@@ -3622,6 +3643,6866 @@
       </c>
       <c r="F160">
         <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161">
+        <v>1270</v>
+      </c>
+      <c r="C161">
+        <v>520</v>
+      </c>
+      <c r="D161">
+        <v>3450</v>
+      </c>
+      <c r="E161">
+        <v>1390</v>
+      </c>
+      <c r="F161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162">
+        <v>3420</v>
+      </c>
+      <c r="C162">
+        <v>1500</v>
+      </c>
+      <c r="D162">
+        <v>7870</v>
+      </c>
+      <c r="E162">
+        <v>6990</v>
+      </c>
+      <c r="F162">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163">
+        <v>360</v>
+      </c>
+      <c r="C163">
+        <v>259</v>
+      </c>
+      <c r="D163">
+        <v>610</v>
+      </c>
+      <c r="E163">
+        <v>260</v>
+      </c>
+      <c r="F163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>49</v>
+      </c>
+      <c r="D164">
+        <v>27</v>
+      </c>
+      <c r="E164">
+        <v>4</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165">
+        <v>3675</v>
+      </c>
+      <c r="C165">
+        <v>2500</v>
+      </c>
+      <c r="D165">
+        <v>6392</v>
+      </c>
+      <c r="E165">
+        <v>7691</v>
+      </c>
+      <c r="F165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166">
+        <v>48</v>
+      </c>
+      <c r="C166">
+        <v>29</v>
+      </c>
+      <c r="D166">
+        <v>610</v>
+      </c>
+      <c r="E166">
+        <v>10</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167">
+        <v>12</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>18</v>
+      </c>
+      <c r="E167">
+        <v>4</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168">
+        <v>66</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168">
+        <v>60</v>
+      </c>
+      <c r="E168">
+        <v>7</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169">
+        <v>1450</v>
+      </c>
+      <c r="C169">
+        <v>211</v>
+      </c>
+      <c r="D169">
+        <v>940</v>
+      </c>
+      <c r="E169">
+        <v>322</v>
+      </c>
+      <c r="F169">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>410</v>
+      </c>
+      <c r="D170">
+        <v>18900</v>
+      </c>
+      <c r="E170">
+        <v>540</v>
+      </c>
+      <c r="F170">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171">
+        <v>960</v>
+      </c>
+      <c r="C171">
+        <v>1290</v>
+      </c>
+      <c r="D171">
+        <v>4000</v>
+      </c>
+      <c r="E171">
+        <v>1560</v>
+      </c>
+      <c r="F171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172">
+        <v>24700</v>
+      </c>
+      <c r="C172">
+        <v>26300</v>
+      </c>
+      <c r="D172">
+        <v>61000</v>
+      </c>
+      <c r="E172">
+        <v>42100</v>
+      </c>
+      <c r="F172">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173">
+        <v>14</v>
+      </c>
+      <c r="C173">
+        <v>124</v>
+      </c>
+      <c r="D173">
+        <v>44</v>
+      </c>
+      <c r="E173">
+        <v>7</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174">
+        <v>2031</v>
+      </c>
+      <c r="C174">
+        <v>20</v>
+      </c>
+      <c r="D174">
+        <v>149</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175">
+        <v>480</v>
+      </c>
+      <c r="C175">
+        <v>298</v>
+      </c>
+      <c r="D175">
+        <v>1075</v>
+      </c>
+      <c r="E175">
+        <v>1132</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176">
+        <v>40000</v>
+      </c>
+      <c r="C176">
+        <v>70</v>
+      </c>
+      <c r="D176">
+        <v>400</v>
+      </c>
+      <c r="E176">
+        <v>600</v>
+      </c>
+      <c r="F176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177">
+        <v>24</v>
+      </c>
+      <c r="C177">
+        <v>5</v>
+      </c>
+      <c r="D177">
+        <v>13</v>
+      </c>
+      <c r="E177">
+        <v>43</v>
+      </c>
+      <c r="F177">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178">
+        <v>266</v>
+      </c>
+      <c r="C178">
+        <v>328</v>
+      </c>
+      <c r="D178">
+        <v>584</v>
+      </c>
+      <c r="E178">
+        <v>862</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179">
+        <v>160</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>10</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180">
+        <v>80</v>
+      </c>
+      <c r="C180">
+        <v>326</v>
+      </c>
+      <c r="D180">
+        <v>619</v>
+      </c>
+      <c r="E180">
+        <v>2480</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181">
+        <v>231</v>
+      </c>
+      <c r="C181">
+        <v>1726</v>
+      </c>
+      <c r="D181">
+        <v>3997</v>
+      </c>
+      <c r="E181">
+        <v>5584</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182">
+        <v>127</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>24</v>
+      </c>
+      <c r="E182">
+        <v>32</v>
+      </c>
+      <c r="F182">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183">
+        <v>9474</v>
+      </c>
+      <c r="C183">
+        <v>353</v>
+      </c>
+      <c r="D183">
+        <v>4066</v>
+      </c>
+      <c r="E183">
+        <v>6552</v>
+      </c>
+      <c r="F183">
+        <v>12997</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184">
+        <v>507</v>
+      </c>
+      <c r="C184">
+        <v>297</v>
+      </c>
+      <c r="D184">
+        <v>1053</v>
+      </c>
+      <c r="E184">
+        <v>1440</v>
+      </c>
+      <c r="F184">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185">
+        <v>416</v>
+      </c>
+      <c r="C185">
+        <v>74</v>
+      </c>
+      <c r="D185">
+        <v>695</v>
+      </c>
+      <c r="E185">
+        <v>867</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186">
+        <v>441</v>
+      </c>
+      <c r="C186">
+        <v>43</v>
+      </c>
+      <c r="D186">
+        <v>207</v>
+      </c>
+      <c r="E186">
+        <v>224</v>
+      </c>
+      <c r="F186">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187">
+        <v>65</v>
+      </c>
+      <c r="C187">
+        <v>16</v>
+      </c>
+      <c r="D187">
+        <v>61</v>
+      </c>
+      <c r="E187">
+        <v>143</v>
+      </c>
+      <c r="F187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188">
+        <v>16</v>
+      </c>
+      <c r="C188">
+        <v>75</v>
+      </c>
+      <c r="D188">
+        <v>87</v>
+      </c>
+      <c r="E188">
+        <v>395</v>
+      </c>
+      <c r="F188">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189">
+        <v>212</v>
+      </c>
+      <c r="C189">
+        <v>15</v>
+      </c>
+      <c r="D189">
+        <v>38</v>
+      </c>
+      <c r="E189">
+        <v>47</v>
+      </c>
+      <c r="F189">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190">
+        <v>800</v>
+      </c>
+      <c r="C190">
+        <v>304</v>
+      </c>
+      <c r="D190">
+        <v>1393</v>
+      </c>
+      <c r="E190">
+        <v>2817</v>
+      </c>
+      <c r="F190">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191">
+        <v>199</v>
+      </c>
+      <c r="C191">
+        <v>217</v>
+      </c>
+      <c r="D191">
+        <v>770</v>
+      </c>
+      <c r="E191">
+        <v>1508</v>
+      </c>
+      <c r="F191">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192">
+        <v>4906</v>
+      </c>
+      <c r="C192">
+        <v>1404</v>
+      </c>
+      <c r="D192">
+        <v>8784</v>
+      </c>
+      <c r="E192">
+        <v>9924</v>
+      </c>
+      <c r="F192">
+        <v>9671</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193">
+        <v>425</v>
+      </c>
+      <c r="C193">
+        <v>7299</v>
+      </c>
+      <c r="D193">
+        <v>17424</v>
+      </c>
+      <c r="E193">
+        <v>37043</v>
+      </c>
+      <c r="F193">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194">
+        <v>1076</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+      <c r="D194">
+        <v>95</v>
+      </c>
+      <c r="E194">
+        <v>71</v>
+      </c>
+      <c r="F194">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195">
+        <v>244</v>
+      </c>
+      <c r="C195">
+        <v>172</v>
+      </c>
+      <c r="D195">
+        <v>754</v>
+      </c>
+      <c r="E195">
+        <v>1281</v>
+      </c>
+      <c r="F195">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196">
+        <v>117</v>
+      </c>
+      <c r="C196">
+        <v>48</v>
+      </c>
+      <c r="D196">
+        <v>167</v>
+      </c>
+      <c r="E196">
+        <v>481</v>
+      </c>
+      <c r="F196">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197">
+        <v>858</v>
+      </c>
+      <c r="C197">
+        <v>208</v>
+      </c>
+      <c r="D197">
+        <v>1324</v>
+      </c>
+      <c r="E197">
+        <v>2793</v>
+      </c>
+      <c r="F197">
+        <v>7672</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198">
+        <v>137</v>
+      </c>
+      <c r="C198">
+        <v>144</v>
+      </c>
+      <c r="D198">
+        <v>369</v>
+      </c>
+      <c r="E198">
+        <v>1242</v>
+      </c>
+      <c r="F198">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199">
+        <v>274</v>
+      </c>
+      <c r="C199">
+        <v>5</v>
+      </c>
+      <c r="D199">
+        <v>27</v>
+      </c>
+      <c r="E199">
+        <v>33</v>
+      </c>
+      <c r="F199">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200">
+        <v>1249</v>
+      </c>
+      <c r="C200">
+        <v>56</v>
+      </c>
+      <c r="D200">
+        <v>370</v>
+      </c>
+      <c r="E200">
+        <v>606</v>
+      </c>
+      <c r="F200">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>11</v>
+      </c>
+      <c r="B201">
+        <v>240</v>
+      </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
+      <c r="D201">
+        <v>20</v>
+      </c>
+      <c r="E201">
+        <v>28</v>
+      </c>
+      <c r="F201">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202">
+        <v>33</v>
+      </c>
+      <c r="C202">
+        <v>30</v>
+      </c>
+      <c r="D202">
+        <v>79</v>
+      </c>
+      <c r="E202">
+        <v>215</v>
+      </c>
+      <c r="F202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203">
+        <v>307</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <v>22</v>
+      </c>
+      <c r="E203">
+        <v>33</v>
+      </c>
+      <c r="F203">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204">
+        <v>60</v>
+      </c>
+      <c r="C204">
+        <v>67</v>
+      </c>
+      <c r="D204">
+        <v>144</v>
+      </c>
+      <c r="E204">
+        <v>449</v>
+      </c>
+      <c r="F204">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205">
+        <v>2004</v>
+      </c>
+      <c r="C205">
+        <v>2750</v>
+      </c>
+      <c r="D205">
+        <v>9739</v>
+      </c>
+      <c r="E205">
+        <v>5113</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206">
+        <v>127</v>
+      </c>
+      <c r="C206">
+        <v>11</v>
+      </c>
+      <c r="D206">
+        <v>107</v>
+      </c>
+      <c r="E206">
+        <v>154</v>
+      </c>
+      <c r="F206">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>11</v>
+      </c>
+      <c r="B207">
+        <v>92.8</v>
+      </c>
+      <c r="C207">
+        <v>0.44</v>
+      </c>
+      <c r="D207">
+        <v>6.75</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208">
+        <v>94.96</v>
+      </c>
+      <c r="C208">
+        <v>0.62</v>
+      </c>
+      <c r="D208">
+        <v>4.37</v>
+      </c>
+      <c r="E208">
+        <v>0.02</v>
+      </c>
+      <c r="F208">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209">
+        <v>5.26</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>28.2</v>
+      </c>
+      <c r="F209">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210">
+        <v>47.5</v>
+      </c>
+      <c r="C210">
+        <v>4.5</v>
+      </c>
+      <c r="D210">
+        <v>22.9</v>
+      </c>
+      <c r="E210">
+        <v>9.6</v>
+      </c>
+      <c r="F210">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211">
+        <v>37.9</v>
+      </c>
+      <c r="C211">
+        <v>2.16</v>
+      </c>
+      <c r="D211">
+        <v>7.7</v>
+      </c>
+      <c r="E211">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F211">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212">
+        <v>29.1</v>
+      </c>
+      <c r="C212">
+        <v>1.41</v>
+      </c>
+      <c r="D212">
+        <v>11.4</v>
+      </c>
+      <c r="E212">
+        <v>20.34</v>
+      </c>
+      <c r="F212">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213">
+        <v>24</v>
+      </c>
+      <c r="C213">
+        <v>17.28</v>
+      </c>
+      <c r="D213">
+        <v>40.72</v>
+      </c>
+      <c r="E213">
+        <v>21</v>
+      </c>
+      <c r="F213">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214">
+        <v>92.19</v>
+      </c>
+      <c r="C214">
+        <v>0.19</v>
+      </c>
+      <c r="D214">
+        <v>6.76</v>
+      </c>
+      <c r="E214">
+        <v>0.1</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="C215">
+        <v>8.73</v>
+      </c>
+      <c r="D215">
+        <v>28.22</v>
+      </c>
+      <c r="E215">
+        <v>52.89</v>
+      </c>
+      <c r="F215">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216">
+        <v>15.55</v>
+      </c>
+      <c r="C216">
+        <v>7.4</v>
+      </c>
+      <c r="D216">
+        <v>7.4</v>
+      </c>
+      <c r="E216">
+        <v>41.93</v>
+      </c>
+      <c r="F216">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B217" s="1">
+        <v>117</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D217" s="1">
+        <v>17</v>
+      </c>
+      <c r="E217" s="1">
+        <v>3</v>
+      </c>
+      <c r="F217" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B218" s="1">
+        <v>407</v>
+      </c>
+      <c r="C218" s="1">
+        <v>15</v>
+      </c>
+      <c r="D218" s="1">
+        <v>28</v>
+      </c>
+      <c r="E218" s="1">
+        <v>21</v>
+      </c>
+      <c r="F218" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B219" s="1">
+        <v>183</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D219" s="1">
+        <v>6</v>
+      </c>
+      <c r="E219" s="1">
+        <v>5</v>
+      </c>
+      <c r="F219" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B220" s="1">
+        <v>166</v>
+      </c>
+      <c r="C220" s="1">
+        <v>38</v>
+      </c>
+      <c r="D220" s="1">
+        <v>21</v>
+      </c>
+      <c r="E220" s="1">
+        <v>6</v>
+      </c>
+      <c r="F220" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221" s="1">
+        <v>105</v>
+      </c>
+      <c r="C221" s="1">
+        <v>13</v>
+      </c>
+      <c r="D221" s="1">
+        <v>23</v>
+      </c>
+      <c r="E221" s="1">
+        <v>4</v>
+      </c>
+      <c r="F221" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" s="1">
+        <v>110</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D222" s="1">
+        <v>7</v>
+      </c>
+      <c r="E222" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F222" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223" s="1">
+        <v>111.7</v>
+      </c>
+      <c r="C223" s="1">
+        <v>104.1</v>
+      </c>
+      <c r="D223" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E223" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="F223" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" s="1">
+        <v>181.5</v>
+      </c>
+      <c r="C224" s="1">
+        <v>76</v>
+      </c>
+      <c r="D224" s="1">
+        <v>22</v>
+      </c>
+      <c r="E224" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="F224" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" s="1">
+        <v>230</v>
+      </c>
+      <c r="C225" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="D225" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="E225" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F225" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" s="1">
+        <v>101</v>
+      </c>
+      <c r="C226" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D226" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="E226" s="1">
+        <v>3</v>
+      </c>
+      <c r="F226" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B227" s="1">
+        <v>134</v>
+      </c>
+      <c r="C227" s="1">
+        <v>156</v>
+      </c>
+      <c r="D227" s="1">
+        <v>13</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F227" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228" s="1">
+        <v>1549.2</v>
+      </c>
+      <c r="C228" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D228" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E228" s="1">
+        <v>53.19</v>
+      </c>
+      <c r="F228" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229" s="1">
+        <v>1458</v>
+      </c>
+      <c r="C229" s="1">
+        <v>1812</v>
+      </c>
+      <c r="D229" s="1">
+        <v>9</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F229" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" s="1">
+        <v>195</v>
+      </c>
+      <c r="C230" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D230" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F230" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B231" s="1">
+        <v>197</v>
+      </c>
+      <c r="C231" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="D231" s="1">
+        <v>12</v>
+      </c>
+      <c r="E231" s="1">
+        <v>15</v>
+      </c>
+      <c r="F231" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B232" s="1">
+        <v>106</v>
+      </c>
+      <c r="C232" s="1">
+        <v>2</v>
+      </c>
+      <c r="D232" s="1">
+        <v>4</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1</v>
+      </c>
+      <c r="F232" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233" s="1">
+        <v>109</v>
+      </c>
+      <c r="C233" s="1">
+        <v>11</v>
+      </c>
+      <c r="D233" s="1">
+        <v>4</v>
+      </c>
+      <c r="E233" s="1">
+        <v>9</v>
+      </c>
+      <c r="F233" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234" s="1">
+        <v>109</v>
+      </c>
+      <c r="C234" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D234" s="1">
+        <v>16</v>
+      </c>
+      <c r="E234" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F234" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235" s="1">
+        <v>116</v>
+      </c>
+      <c r="C235" s="1">
+        <v>134</v>
+      </c>
+      <c r="D235" s="1">
+        <v>14</v>
+      </c>
+      <c r="E235" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="F235" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" s="1">
+        <v>100</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D236" s="1">
+        <v>18</v>
+      </c>
+      <c r="E236" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F236" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B237" s="1">
+        <v>113</v>
+      </c>
+      <c r="C237" s="1">
+        <v>48</v>
+      </c>
+      <c r="D237" s="1">
+        <v>21</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F237" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" s="1">
+        <v>103.5</v>
+      </c>
+      <c r="C238" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="D238" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E238" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F238" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" s="1">
+        <v>160</v>
+      </c>
+      <c r="C239" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="D239" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="E239" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F239" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B240" s="1">
+        <v>134</v>
+      </c>
+      <c r="C240" s="1">
+        <v>267</v>
+      </c>
+      <c r="D240" s="1">
+        <v>13</v>
+      </c>
+      <c r="E240" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F240" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" s="1">
+        <v>235</v>
+      </c>
+      <c r="C241" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D241" s="1">
+        <v>16</v>
+      </c>
+      <c r="E241" s="1">
+        <v>35</v>
+      </c>
+      <c r="F241" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B242" s="1">
+        <v>187</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1</v>
+      </c>
+      <c r="D242" s="1">
+        <v>5</v>
+      </c>
+      <c r="E242" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F242" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B243" s="1">
+        <v>121</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1</v>
+      </c>
+      <c r="D243" s="1">
+        <v>3</v>
+      </c>
+      <c r="E243" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F243" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2510</v>
+      </c>
+      <c r="C244" s="1">
+        <v>139</v>
+      </c>
+      <c r="D244" s="1">
+        <v>202</v>
+      </c>
+      <c r="E244" s="1">
+        <v>208</v>
+      </c>
+      <c r="F244" s="1">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="1">
+        <v>109</v>
+      </c>
+      <c r="C245" s="1">
+        <v>5</v>
+      </c>
+      <c r="D245" s="1">
+        <v>19</v>
+      </c>
+      <c r="E245" s="1">
+        <v>12</v>
+      </c>
+      <c r="F245" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246" s="1">
+        <v>135</v>
+      </c>
+      <c r="C246" s="1">
+        <v>24</v>
+      </c>
+      <c r="D246" s="1">
+        <v>27</v>
+      </c>
+      <c r="E246" s="1">
+        <v>9</v>
+      </c>
+      <c r="F246" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B247" s="1">
+        <v>174</v>
+      </c>
+      <c r="C247" s="1">
+        <v>6</v>
+      </c>
+      <c r="D247" s="1">
+        <v>27</v>
+      </c>
+      <c r="E247" s="1">
+        <v>12</v>
+      </c>
+      <c r="F247" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="1">
+        <v>179</v>
+      </c>
+      <c r="C248" s="1">
+        <v>10</v>
+      </c>
+      <c r="D248" s="1">
+        <v>29</v>
+      </c>
+      <c r="E248" s="1">
+        <v>17</v>
+      </c>
+      <c r="F248" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="1">
+        <v>142</v>
+      </c>
+      <c r="C249" s="1">
+        <v>4</v>
+      </c>
+      <c r="D249" s="1">
+        <v>17</v>
+      </c>
+      <c r="E249" s="1">
+        <v>7</v>
+      </c>
+      <c r="F249" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250" s="1">
+        <v>595</v>
+      </c>
+      <c r="C250" s="1">
+        <v>4</v>
+      </c>
+      <c r="D250" s="1">
+        <v>32</v>
+      </c>
+      <c r="E250" s="1">
+        <v>18</v>
+      </c>
+      <c r="F250" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" s="1">
+        <v>720</v>
+      </c>
+      <c r="C251" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D251" s="1">
+        <v>7</v>
+      </c>
+      <c r="E251" s="1">
+        <v>15</v>
+      </c>
+      <c r="F251" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B252" s="1">
+        <v>163</v>
+      </c>
+      <c r="C252" s="1">
+        <v>7</v>
+      </c>
+      <c r="D252" s="1">
+        <v>26</v>
+      </c>
+      <c r="E252" s="1">
+        <v>19</v>
+      </c>
+      <c r="F252" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253" s="1">
+        <v>153</v>
+      </c>
+      <c r="C253" s="1">
+        <v>9</v>
+      </c>
+      <c r="D253" s="1">
+        <v>18</v>
+      </c>
+      <c r="E253" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F253" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B254" s="1">
+        <v>111</v>
+      </c>
+      <c r="C254" s="1">
+        <v>47</v>
+      </c>
+      <c r="D254" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E254" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F254" s="1">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255" s="1">
+        <v>124</v>
+      </c>
+      <c r="C255" s="1">
+        <v>4</v>
+      </c>
+      <c r="D255" s="1">
+        <v>14</v>
+      </c>
+      <c r="E255" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F255" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B256" s="1">
+        <v>143</v>
+      </c>
+      <c r="C256" s="1">
+        <v>16</v>
+      </c>
+      <c r="D256" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="E256" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="F256" s="1">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B257" s="1">
+        <v>137</v>
+      </c>
+      <c r="C257" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="D257" s="1">
+        <v>6</v>
+      </c>
+      <c r="E257" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="F257" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" s="1">
+        <v>102</v>
+      </c>
+      <c r="C258" s="1">
+        <v>6</v>
+      </c>
+      <c r="D258" s="1">
+        <v>6</v>
+      </c>
+      <c r="E258" s="1">
+        <v>7</v>
+      </c>
+      <c r="F258" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B259" s="1">
+        <v>115</v>
+      </c>
+      <c r="C259" s="1">
+        <v>110</v>
+      </c>
+      <c r="D259" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="E259" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="F259" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B260" s="1">
+        <v>169</v>
+      </c>
+      <c r="C260" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="D260" s="1">
+        <v>38</v>
+      </c>
+      <c r="E260" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F260" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B261" s="1">
+        <v>186</v>
+      </c>
+      <c r="C261" s="1">
+        <v>13</v>
+      </c>
+      <c r="D261" s="1">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="E261" s="1">
+        <v>37</v>
+      </c>
+      <c r="F261" s="1">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B262" s="1">
+        <v>151</v>
+      </c>
+      <c r="C262" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="D262" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="E262" s="1">
+        <v>5</v>
+      </c>
+      <c r="F262" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B263" s="1">
+        <v>716</v>
+      </c>
+      <c r="C263" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D263" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="E263" s="1">
+        <v>20</v>
+      </c>
+      <c r="F263" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264" s="1">
+        <v>716</v>
+      </c>
+      <c r="C264" s="1">
+        <v>33</v>
+      </c>
+      <c r="D264" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="E264" s="1">
+        <v>20</v>
+      </c>
+      <c r="F264" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" s="1">
+        <v>476</v>
+      </c>
+      <c r="C265" s="1">
+        <v>27</v>
+      </c>
+      <c r="D265" s="1">
+        <v>28</v>
+      </c>
+      <c r="E265" s="1">
+        <v>36</v>
+      </c>
+      <c r="F265" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B266" s="1">
+        <v>289</v>
+      </c>
+      <c r="C266" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="D266" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="E266" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="F266" s="1">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B267" s="1">
+        <v>3559</v>
+      </c>
+      <c r="C267" s="1">
+        <v>22</v>
+      </c>
+      <c r="D267" s="1">
+        <v>187</v>
+      </c>
+      <c r="E267" s="1">
+        <v>230</v>
+      </c>
+      <c r="F267" s="1">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B268" s="1">
+        <v>4879</v>
+      </c>
+      <c r="C268" s="1">
+        <v>15</v>
+      </c>
+      <c r="D268" s="1">
+        <v>262</v>
+      </c>
+      <c r="E268" s="1">
+        <v>332</v>
+      </c>
+      <c r="F268" s="1">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" s="1">
+        <v>4127</v>
+      </c>
+      <c r="C269" s="1">
+        <v>18</v>
+      </c>
+      <c r="D269" s="1">
+        <v>267</v>
+      </c>
+      <c r="E269" s="1">
+        <v>355</v>
+      </c>
+      <c r="F269" s="1">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B270" s="1">
+        <v>843</v>
+      </c>
+      <c r="C270" s="1">
+        <v>12</v>
+      </c>
+      <c r="D270" s="1">
+        <v>133</v>
+      </c>
+      <c r="E270" s="1">
+        <v>168</v>
+      </c>
+      <c r="F270" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B271" s="1">
+        <v>137</v>
+      </c>
+      <c r="C271" s="1">
+        <v>8</v>
+      </c>
+      <c r="D271" s="1">
+        <v>33</v>
+      </c>
+      <c r="E271" s="1">
+        <v>29</v>
+      </c>
+      <c r="F271" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B272" s="1">
+        <v>315</v>
+      </c>
+      <c r="C272" s="1">
+        <v>14</v>
+      </c>
+      <c r="D272" s="1">
+        <v>60</v>
+      </c>
+      <c r="E272" s="1">
+        <v>93</v>
+      </c>
+      <c r="F272" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B273" s="1">
+        <v>818</v>
+      </c>
+      <c r="C273" s="1">
+        <v>49</v>
+      </c>
+      <c r="D273" s="1">
+        <v>94</v>
+      </c>
+      <c r="E273" s="1">
+        <v>121</v>
+      </c>
+      <c r="F273" s="1">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B274" s="1">
+        <v>500</v>
+      </c>
+      <c r="C274" s="1">
+        <v>193</v>
+      </c>
+      <c r="D274" s="1">
+        <v>97</v>
+      </c>
+      <c r="E274" s="1">
+        <v>40</v>
+      </c>
+      <c r="F274" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B275" s="1">
+        <v>119</v>
+      </c>
+      <c r="C275" s="1">
+        <v>20</v>
+      </c>
+      <c r="D275" s="1">
+        <v>8</v>
+      </c>
+      <c r="E275" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F275" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B276" s="1">
+        <v>205</v>
+      </c>
+      <c r="C276" s="1">
+        <v>8</v>
+      </c>
+      <c r="D276" s="1">
+        <v>20</v>
+      </c>
+      <c r="E276" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F276" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B277" s="1">
+        <v>119</v>
+      </c>
+      <c r="C277" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="D277" s="1">
+        <v>8</v>
+      </c>
+      <c r="E277" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F277" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B278" s="1">
+        <v>256</v>
+      </c>
+      <c r="C278" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="D278" s="1">
+        <v>8</v>
+      </c>
+      <c r="E278" s="1">
+        <v>15</v>
+      </c>
+      <c r="F278" s="1">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B279" s="1">
+        <v>153</v>
+      </c>
+      <c r="C279" s="1">
+        <v>9</v>
+      </c>
+      <c r="D279" s="1">
+        <v>18</v>
+      </c>
+      <c r="E279" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F279" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B280" s="1">
+        <v>301</v>
+      </c>
+      <c r="C280" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="D280" s="1">
+        <v>5.78</v>
+      </c>
+      <c r="E280" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F280" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B281" s="1">
+        <v>208</v>
+      </c>
+      <c r="C281" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="D281" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="E281" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F281" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B282" s="1">
+        <v>254</v>
+      </c>
+      <c r="C282" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D282" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="E282" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F282" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B283" s="1">
+        <v>385</v>
+      </c>
+      <c r="C283" s="1">
+        <v>50</v>
+      </c>
+      <c r="D283" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="E283" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="F283" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" s="1">
+        <v>225</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D284" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E284" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F284" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B285" s="1">
+        <v>179</v>
+      </c>
+      <c r="C285" s="1">
+        <v>64</v>
+      </c>
+      <c r="D285" s="1">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="E285" s="1">
+        <v>654</v>
+      </c>
+      <c r="F285" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" s="1">
+        <v>47</v>
+      </c>
+      <c r="C286" s="1">
+        <v>4</v>
+      </c>
+      <c r="D286" s="1">
+        <v>9</v>
+      </c>
+      <c r="E286" s="1">
+        <v>16</v>
+      </c>
+      <c r="F286" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B287" s="1">
+        <v>84</v>
+      </c>
+      <c r="C287" s="1">
+        <v>1</v>
+      </c>
+      <c r="D287" s="1">
+        <v>6</v>
+      </c>
+      <c r="E287" s="1">
+        <v>14</v>
+      </c>
+      <c r="F287" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" s="1">
+        <v>629</v>
+      </c>
+      <c r="C288" s="1">
+        <v>16</v>
+      </c>
+      <c r="D288" s="1">
+        <v>402</v>
+      </c>
+      <c r="E288" s="1">
+        <v>298</v>
+      </c>
+      <c r="F288" s="1">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B289" s="1">
+        <v>35</v>
+      </c>
+      <c r="C289" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D289" s="1">
+        <v>11</v>
+      </c>
+      <c r="E289" s="1">
+        <v>7</v>
+      </c>
+      <c r="F289" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290" s="1">
+        <v>64</v>
+      </c>
+      <c r="C290" s="1">
+        <v>1</v>
+      </c>
+      <c r="D290" s="1">
+        <v>18</v>
+      </c>
+      <c r="E290" s="1">
+        <v>4</v>
+      </c>
+      <c r="F290" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291" s="1">
+        <v>63</v>
+      </c>
+      <c r="C291" s="1">
+        <v>15</v>
+      </c>
+      <c r="D291" s="1">
+        <v>22</v>
+      </c>
+      <c r="E291" s="1">
+        <v>11</v>
+      </c>
+      <c r="F291" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" s="1">
+        <v>30</v>
+      </c>
+      <c r="C292" s="1">
+        <v>1</v>
+      </c>
+      <c r="D292" s="1">
+        <v>14</v>
+      </c>
+      <c r="E292" s="1">
+        <v>9</v>
+      </c>
+      <c r="F292" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B293" s="1">
+        <v>323</v>
+      </c>
+      <c r="C293" s="1">
+        <v>7</v>
+      </c>
+      <c r="D293" s="1">
+        <v>115</v>
+      </c>
+      <c r="E293" s="1">
+        <v>130</v>
+      </c>
+      <c r="F293" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B294" s="1">
+        <v>80</v>
+      </c>
+      <c r="C294" s="1">
+        <v>4</v>
+      </c>
+      <c r="D294" s="1">
+        <v>28</v>
+      </c>
+      <c r="E294" s="1">
+        <v>15</v>
+      </c>
+      <c r="F294" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B295" s="1">
+        <v>19</v>
+      </c>
+      <c r="C295" s="1">
+        <v>2</v>
+      </c>
+      <c r="D295" s="1">
+        <v>12</v>
+      </c>
+      <c r="E295" s="1">
+        <v>8</v>
+      </c>
+      <c r="F295" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B296" s="1">
+        <v>152</v>
+      </c>
+      <c r="C296" s="1">
+        <v>7</v>
+      </c>
+      <c r="D296" s="1">
+        <v>116</v>
+      </c>
+      <c r="E296" s="1">
+        <v>131</v>
+      </c>
+      <c r="F296" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" s="1">
+        <v>25</v>
+      </c>
+      <c r="C297" s="1">
+        <v>6</v>
+      </c>
+      <c r="D297" s="1">
+        <v>9</v>
+      </c>
+      <c r="E297" s="1">
+        <v>5</v>
+      </c>
+      <c r="F297" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B298" s="1">
+        <v>57</v>
+      </c>
+      <c r="C298" s="1">
+        <v>197</v>
+      </c>
+      <c r="D298" s="1">
+        <v>148</v>
+      </c>
+      <c r="E298" s="1">
+        <v>72</v>
+      </c>
+      <c r="F298" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B299" s="1">
+        <v>156</v>
+      </c>
+      <c r="C299" s="1">
+        <v>103</v>
+      </c>
+      <c r="D299" s="1">
+        <v>55</v>
+      </c>
+      <c r="E299" s="1">
+        <v>13</v>
+      </c>
+      <c r="F299" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B300" s="1">
+        <v>85</v>
+      </c>
+      <c r="C300" s="1">
+        <v>4</v>
+      </c>
+      <c r="D300" s="1">
+        <v>49</v>
+      </c>
+      <c r="E300" s="1">
+        <v>50</v>
+      </c>
+      <c r="F300" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301" s="1">
+        <v>392</v>
+      </c>
+      <c r="C301" s="1">
+        <v>82</v>
+      </c>
+      <c r="D301" s="1">
+        <v>153</v>
+      </c>
+      <c r="E301" s="1">
+        <v>45</v>
+      </c>
+      <c r="F301" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" s="1">
+        <v>48</v>
+      </c>
+      <c r="C302" s="1">
+        <v>69</v>
+      </c>
+      <c r="D302" s="1">
+        <v>20</v>
+      </c>
+      <c r="E302" s="1">
+        <v>41</v>
+      </c>
+      <c r="F302" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B303" s="1">
+        <v>88</v>
+      </c>
+      <c r="C303" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="D303" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="E303" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="F303" s="1">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B304" s="1">
+        <v>50</v>
+      </c>
+      <c r="C304" s="1">
+        <v>98</v>
+      </c>
+      <c r="D304" s="1">
+        <v>42</v>
+      </c>
+      <c r="E304" s="1">
+        <v>10</v>
+      </c>
+      <c r="F304" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B305" s="1">
+        <v>43</v>
+      </c>
+      <c r="C305" s="1">
+        <v>3</v>
+      </c>
+      <c r="D305" s="1">
+        <v>19</v>
+      </c>
+      <c r="E305" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F305" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306" s="1">
+        <v>59</v>
+      </c>
+      <c r="C306" s="1">
+        <v>120</v>
+      </c>
+      <c r="D306" s="1">
+        <v>20</v>
+      </c>
+      <c r="E306" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="F306" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B307" s="1">
+        <v>292</v>
+      </c>
+      <c r="C307" s="1">
+        <v>32</v>
+      </c>
+      <c r="D307" s="1">
+        <v>346</v>
+      </c>
+      <c r="E307" s="1">
+        <v>313</v>
+      </c>
+      <c r="F307" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C308" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D308" s="1">
+        <v>21</v>
+      </c>
+      <c r="E308" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F308" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B309" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="C309" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D309" s="1">
+        <v>4</v>
+      </c>
+      <c r="E309" s="1">
+        <v>8</v>
+      </c>
+      <c r="F309" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310" s="1">
+        <v>10</v>
+      </c>
+      <c r="C310" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D310" s="1">
+        <v>15</v>
+      </c>
+      <c r="E310" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F310" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B311" s="1">
+        <v>41</v>
+      </c>
+      <c r="C311" s="1">
+        <v>19</v>
+      </c>
+      <c r="D311" s="1">
+        <v>16</v>
+      </c>
+      <c r="E311" s="1">
+        <v>58</v>
+      </c>
+      <c r="F311" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B312" s="1">
+        <v>37</v>
+      </c>
+      <c r="C312" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="D312" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="E312" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="F312" s="1">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="C313" s="1">
+        <v>83.9</v>
+      </c>
+      <c r="D313" s="1">
+        <v>92.6</v>
+      </c>
+      <c r="E313" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="F313" s="1">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314" s="1">
+        <v>123</v>
+      </c>
+      <c r="C314" s="1">
+        <v>9</v>
+      </c>
+      <c r="D314" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="E314" s="1">
+        <v>62</v>
+      </c>
+      <c r="F314" s="1">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" s="1">
+        <v>2</v>
+      </c>
+      <c r="C315" s="1">
+        <v>133</v>
+      </c>
+      <c r="D315" s="1">
+        <v>41</v>
+      </c>
+      <c r="E315" s="1">
+        <v>9</v>
+      </c>
+      <c r="F315" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" s="1">
+        <v>26</v>
+      </c>
+      <c r="C316" s="1">
+        <v>93</v>
+      </c>
+      <c r="D316" s="1">
+        <v>68</v>
+      </c>
+      <c r="E316" s="1">
+        <v>31</v>
+      </c>
+      <c r="F316" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" s="1">
+        <v>77</v>
+      </c>
+      <c r="C317" s="1">
+        <v>27</v>
+      </c>
+      <c r="D317" s="1">
+        <v>36</v>
+      </c>
+      <c r="E317" s="1">
+        <v>18</v>
+      </c>
+      <c r="F317" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B318" s="1">
+        <v>46</v>
+      </c>
+      <c r="C318" s="1">
+        <v>1</v>
+      </c>
+      <c r="D318" s="1">
+        <v>21</v>
+      </c>
+      <c r="E318" s="1">
+        <v>11</v>
+      </c>
+      <c r="F318" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B319" s="1">
+        <v>25</v>
+      </c>
+      <c r="C319" s="1">
+        <v>27</v>
+      </c>
+      <c r="D319" s="1">
+        <v>28</v>
+      </c>
+      <c r="E319" s="1">
+        <v>15</v>
+      </c>
+      <c r="F319" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B320" s="1">
+        <v>243</v>
+      </c>
+      <c r="C320" s="1">
+        <v>20</v>
+      </c>
+      <c r="D320" s="1">
+        <v>127</v>
+      </c>
+      <c r="E320" s="1">
+        <v>122</v>
+      </c>
+      <c r="F320" s="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B321" s="1">
+        <v>88</v>
+      </c>
+      <c r="C321" s="1">
+        <v>57</v>
+      </c>
+      <c r="D321" s="1">
+        <v>45</v>
+      </c>
+      <c r="E321" s="1">
+        <v>15</v>
+      </c>
+      <c r="F321" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B322" s="1">
+        <v>61</v>
+      </c>
+      <c r="C322" s="1">
+        <v>2</v>
+      </c>
+      <c r="D322" s="1">
+        <v>21</v>
+      </c>
+      <c r="E322" s="1">
+        <v>26</v>
+      </c>
+      <c r="F322" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B323" s="1">
+        <v>151</v>
+      </c>
+      <c r="C323" s="1">
+        <v>16</v>
+      </c>
+      <c r="D323" s="1">
+        <v>51</v>
+      </c>
+      <c r="E323" s="1">
+        <v>12</v>
+      </c>
+      <c r="F323" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B324" s="1">
+        <v>75</v>
+      </c>
+      <c r="C324" s="1">
+        <v>31</v>
+      </c>
+      <c r="D324" s="1">
+        <v>5</v>
+      </c>
+      <c r="E324" s="1">
+        <v>69</v>
+      </c>
+      <c r="F324" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B325" s="1">
+        <v>71</v>
+      </c>
+      <c r="C325" s="1">
+        <v>9</v>
+      </c>
+      <c r="D325" s="1">
+        <v>151</v>
+      </c>
+      <c r="E325" s="1">
+        <v>89</v>
+      </c>
+      <c r="F325" s="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B326" s="1">
+        <v>87</v>
+      </c>
+      <c r="C326" s="1">
+        <v>23</v>
+      </c>
+      <c r="D326" s="1">
+        <v>34</v>
+      </c>
+      <c r="E326" s="1">
+        <v>15</v>
+      </c>
+      <c r="F326" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B327" s="1">
+        <v>114</v>
+      </c>
+      <c r="C327" s="1">
+        <v>27</v>
+      </c>
+      <c r="D327" s="1">
+        <v>41</v>
+      </c>
+      <c r="E327" s="1">
+        <v>15</v>
+      </c>
+      <c r="F327" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B328" s="1">
+        <v>60</v>
+      </c>
+      <c r="C328" s="1">
+        <v>5</v>
+      </c>
+      <c r="D328" s="1">
+        <v>85</v>
+      </c>
+      <c r="E328" s="1">
+        <v>67</v>
+      </c>
+      <c r="F328" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B329" s="1">
+        <v>46</v>
+      </c>
+      <c r="C329" s="1">
+        <v>14</v>
+      </c>
+      <c r="D329" s="1">
+        <v>20</v>
+      </c>
+      <c r="E329" s="1">
+        <v>10</v>
+      </c>
+      <c r="F329" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B330" s="1">
+        <v>22</v>
+      </c>
+      <c r="C330" s="1">
+        <v>19</v>
+      </c>
+      <c r="D330" s="1">
+        <v>14</v>
+      </c>
+      <c r="E330" s="1">
+        <v>6</v>
+      </c>
+      <c r="F330" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B331" s="1">
+        <v>70</v>
+      </c>
+      <c r="C331" s="1">
+        <v>91</v>
+      </c>
+      <c r="D331" s="1">
+        <v>4</v>
+      </c>
+      <c r="E331" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F331" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B332" s="1">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="C332" s="1">
+        <v>70</v>
+      </c>
+      <c r="D332" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="E332" s="1">
+        <v>39</v>
+      </c>
+      <c r="F332" s="1">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333" s="1">
+        <v>155</v>
+      </c>
+      <c r="C333" s="1">
+        <v>69.3</v>
+      </c>
+      <c r="D333" s="1">
+        <v>49</v>
+      </c>
+      <c r="E333" s="1">
+        <v>42</v>
+      </c>
+      <c r="F333" s="1">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B334" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="C334" s="1">
+        <v>108.4</v>
+      </c>
+      <c r="D334" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="E334" s="1">
+        <v>12</v>
+      </c>
+      <c r="F334" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B335" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C335" s="1">
+        <v>10</v>
+      </c>
+      <c r="D335" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E335" s="1">
+        <v>5</v>
+      </c>
+      <c r="F335" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B336" s="1">
+        <v>34</v>
+      </c>
+      <c r="C336" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D336" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E336" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F336" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B337" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="C337" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="D337" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E337" s="1">
+        <v>69</v>
+      </c>
+      <c r="F337" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B338" s="1">
+        <v>215</v>
+      </c>
+      <c r="C338" s="1">
+        <v>87.7</v>
+      </c>
+      <c r="D338" s="1">
+        <v>84.8</v>
+      </c>
+      <c r="E338" s="1">
+        <v>1002</v>
+      </c>
+      <c r="F338" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B339" s="1">
+        <v>17</v>
+      </c>
+      <c r="C339" s="1">
+        <v>192</v>
+      </c>
+      <c r="D339" s="1">
+        <v>42</v>
+      </c>
+      <c r="E339" s="1">
+        <v>12</v>
+      </c>
+      <c r="F339" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B340" s="1">
+        <v>4</v>
+      </c>
+      <c r="C340" s="1">
+        <v>213</v>
+      </c>
+      <c r="D340" s="1">
+        <v>88</v>
+      </c>
+      <c r="E340" s="1">
+        <v>14</v>
+      </c>
+      <c r="F340" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B341" s="1">
+        <v>42</v>
+      </c>
+      <c r="C341" s="1">
+        <v>1</v>
+      </c>
+      <c r="D341" s="1">
+        <v>124</v>
+      </c>
+      <c r="E341" s="1">
+        <v>8</v>
+      </c>
+      <c r="F341" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B342" s="1">
+        <v>36</v>
+      </c>
+      <c r="C342" s="1">
+        <v>230</v>
+      </c>
+      <c r="D342" s="1">
+        <v>167</v>
+      </c>
+      <c r="E342" s="1">
+        <v>18</v>
+      </c>
+      <c r="F342" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B343" s="1">
+        <v>10</v>
+      </c>
+      <c r="C343" s="1">
+        <v>72</v>
+      </c>
+      <c r="D343" s="1">
+        <v>56</v>
+      </c>
+      <c r="E343" s="1">
+        <v>70</v>
+      </c>
+      <c r="F343" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B344" s="1">
+        <v>9</v>
+      </c>
+      <c r="C344" s="1">
+        <v>93</v>
+      </c>
+      <c r="D344" s="1">
+        <v>38</v>
+      </c>
+      <c r="E344" s="1">
+        <v>8</v>
+      </c>
+      <c r="F344" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B345" s="1">
+        <v>36</v>
+      </c>
+      <c r="C345" s="1">
+        <v>65</v>
+      </c>
+      <c r="D345" s="1">
+        <v>21</v>
+      </c>
+      <c r="E345" s="1">
+        <v>2</v>
+      </c>
+      <c r="F345" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B346" s="1">
+        <v>161</v>
+      </c>
+      <c r="C346" s="1">
+        <v>210</v>
+      </c>
+      <c r="D346" s="1">
+        <v>38</v>
+      </c>
+      <c r="E346" s="1">
+        <v>13</v>
+      </c>
+      <c r="F346" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B347" s="1">
+        <v>38</v>
+      </c>
+      <c r="C347" s="1">
+        <v>296</v>
+      </c>
+      <c r="D347" s="1">
+        <v>38</v>
+      </c>
+      <c r="E347" s="1">
+        <v>14</v>
+      </c>
+      <c r="F347" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B348" s="1">
+        <v>13</v>
+      </c>
+      <c r="C348" s="1">
+        <v>117</v>
+      </c>
+      <c r="D348" s="1">
+        <v>59</v>
+      </c>
+      <c r="E348" s="1">
+        <v>44</v>
+      </c>
+      <c r="F348" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B349" s="1">
+        <v>10</v>
+      </c>
+      <c r="C349" s="1">
+        <v>106</v>
+      </c>
+      <c r="D349" s="1">
+        <v>44</v>
+      </c>
+      <c r="E349" s="1">
+        <v>28</v>
+      </c>
+      <c r="F349" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B350" s="1">
+        <v>15</v>
+      </c>
+      <c r="C350" s="1">
+        <v>92</v>
+      </c>
+      <c r="D350" s="1">
+        <v>7</v>
+      </c>
+      <c r="E350" s="1">
+        <v>5</v>
+      </c>
+      <c r="F350" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B351" s="1">
+        <v>85</v>
+      </c>
+      <c r="C351" s="1">
+        <v>315</v>
+      </c>
+      <c r="D351" s="1">
+        <v>98</v>
+      </c>
+      <c r="E351" s="1">
+        <v>30</v>
+      </c>
+      <c r="F351" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B352" s="1">
+        <v>74</v>
+      </c>
+      <c r="C352" s="1">
+        <v>263</v>
+      </c>
+      <c r="D352" s="1">
+        <v>173</v>
+      </c>
+      <c r="E352" s="1">
+        <v>33</v>
+      </c>
+      <c r="F352" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B353" s="1">
+        <v>122</v>
+      </c>
+      <c r="C353" s="1">
+        <v>271</v>
+      </c>
+      <c r="D353" s="1">
+        <v>161</v>
+      </c>
+      <c r="E353" s="1">
+        <v>35</v>
+      </c>
+      <c r="F353" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B354" s="1">
+        <v>69</v>
+      </c>
+      <c r="C354" s="1">
+        <v>267</v>
+      </c>
+      <c r="D354" s="1">
+        <v>174</v>
+      </c>
+      <c r="E354" s="1">
+        <v>15</v>
+      </c>
+      <c r="F354" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B355" s="1">
+        <v>113</v>
+      </c>
+      <c r="C355" s="1">
+        <v>173</v>
+      </c>
+      <c r="D355" s="1">
+        <v>137</v>
+      </c>
+      <c r="E355" s="1">
+        <v>34</v>
+      </c>
+      <c r="F355" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B356" s="1">
+        <v>111</v>
+      </c>
+      <c r="C356" s="1">
+        <v>105</v>
+      </c>
+      <c r="D356" s="1">
+        <v>67</v>
+      </c>
+      <c r="E356" s="1">
+        <v>9</v>
+      </c>
+      <c r="F356" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B357" s="1">
+        <v>18</v>
+      </c>
+      <c r="C357" s="1">
+        <v>146</v>
+      </c>
+      <c r="D357" s="1">
+        <v>30</v>
+      </c>
+      <c r="E357" s="1">
+        <v>8</v>
+      </c>
+      <c r="F357" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B358" s="1">
+        <v>21</v>
+      </c>
+      <c r="C358" s="1">
+        <v>191</v>
+      </c>
+      <c r="D358" s="1">
+        <v>14</v>
+      </c>
+      <c r="E358" s="1">
+        <v>90</v>
+      </c>
+      <c r="F358" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B359" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="C359" s="1">
+        <v>119</v>
+      </c>
+      <c r="D359" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="E359" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F359" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B360" s="1">
+        <v>34</v>
+      </c>
+      <c r="C360" s="1">
+        <v>70.3</v>
+      </c>
+      <c r="D360" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="E360" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="F360" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B361" s="1">
+        <v>10</v>
+      </c>
+      <c r="C361" s="1">
+        <v>80</v>
+      </c>
+      <c r="D361" s="1">
+        <v>24</v>
+      </c>
+      <c r="E361" s="1">
+        <v>5</v>
+      </c>
+      <c r="F361" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B362" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C362" s="1">
+        <v>146</v>
+      </c>
+      <c r="D362" s="1">
+        <v>43</v>
+      </c>
+      <c r="E362" s="1">
+        <v>9</v>
+      </c>
+      <c r="F362" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B363" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C363" s="1">
+        <v>555</v>
+      </c>
+      <c r="D363" s="1">
+        <v>215</v>
+      </c>
+      <c r="E363" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F363" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B364" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C364" s="1">
+        <v>395</v>
+      </c>
+      <c r="D364" s="1">
+        <v>153</v>
+      </c>
+      <c r="E364" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="F364" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B365" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C365" s="1">
+        <v>609</v>
+      </c>
+      <c r="D365" s="1">
+        <v>187</v>
+      </c>
+      <c r="E365" s="1">
+        <v>13</v>
+      </c>
+      <c r="F365" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B366" s="1">
+        <v>320</v>
+      </c>
+      <c r="C366" s="1">
+        <v>187</v>
+      </c>
+      <c r="D366" s="1">
+        <v>131</v>
+      </c>
+      <c r="E366" s="1">
+        <v>127</v>
+      </c>
+      <c r="F366" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B367" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="C367" s="1">
+        <v>97.4</v>
+      </c>
+      <c r="D367" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="E367" s="1">
+        <v>79.5</v>
+      </c>
+      <c r="F367" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B368" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C368" s="1">
+        <v>68.7</v>
+      </c>
+      <c r="D368" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="E368" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="F368" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B369" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C369" s="1">
+        <v>70</v>
+      </c>
+      <c r="D369" s="1">
+        <v>116</v>
+      </c>
+      <c r="E369" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F369" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B370" s="1">
+        <v>24</v>
+      </c>
+      <c r="C370" s="1">
+        <v>69</v>
+      </c>
+      <c r="D370" s="1">
+        <v>109</v>
+      </c>
+      <c r="E370" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F370" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B371" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C371" s="1">
+        <v>136</v>
+      </c>
+      <c r="D371" s="1">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E371" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="F371" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B372" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="C372" s="1">
+        <v>80</v>
+      </c>
+      <c r="D372" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E372" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F372" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B373" s="1">
+        <v>93.5</v>
+      </c>
+      <c r="C373" s="1">
+        <v>39</v>
+      </c>
+      <c r="D373" s="1">
+        <v>131.9</v>
+      </c>
+      <c r="E373" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="F373" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B374" s="1">
+        <v>16</v>
+      </c>
+      <c r="C374" s="1">
+        <v>124</v>
+      </c>
+      <c r="D374" s="1">
+        <v>68</v>
+      </c>
+      <c r="E374" s="1">
+        <v>15</v>
+      </c>
+      <c r="F374" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B375" s="1">
+        <v>11</v>
+      </c>
+      <c r="C375" s="1">
+        <v>155</v>
+      </c>
+      <c r="D375" s="1">
+        <v>46</v>
+      </c>
+      <c r="E375" s="1">
+        <v>18</v>
+      </c>
+      <c r="F375" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B376" s="1">
+        <v>16</v>
+      </c>
+      <c r="C376" s="1">
+        <v>157</v>
+      </c>
+      <c r="D376" s="1">
+        <v>68</v>
+      </c>
+      <c r="E376" s="1">
+        <v>19</v>
+      </c>
+      <c r="F376" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B377" s="1">
+        <v>29</v>
+      </c>
+      <c r="C377" s="1">
+        <v>158</v>
+      </c>
+      <c r="D377" s="1">
+        <v>71</v>
+      </c>
+      <c r="E377" s="1">
+        <v>20</v>
+      </c>
+      <c r="F377" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B378" s="1">
+        <v>19</v>
+      </c>
+      <c r="C378" s="1">
+        <v>76</v>
+      </c>
+      <c r="D378" s="1">
+        <v>48</v>
+      </c>
+      <c r="E378" s="1">
+        <v>18</v>
+      </c>
+      <c r="F378" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B379" s="1">
+        <v>8</v>
+      </c>
+      <c r="C379" s="1">
+        <v>88</v>
+      </c>
+      <c r="D379" s="1">
+        <v>16</v>
+      </c>
+      <c r="E379" s="1">
+        <v>7</v>
+      </c>
+      <c r="F379" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B380" s="1">
+        <v>10</v>
+      </c>
+      <c r="C380" s="1">
+        <v>147</v>
+      </c>
+      <c r="D380" s="1">
+        <v>26</v>
+      </c>
+      <c r="E380" s="1">
+        <v>6</v>
+      </c>
+      <c r="F380" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B381" s="1">
+        <v>9</v>
+      </c>
+      <c r="C381" s="1">
+        <v>135</v>
+      </c>
+      <c r="D381" s="1">
+        <v>56</v>
+      </c>
+      <c r="E381" s="1">
+        <v>7</v>
+      </c>
+      <c r="F381" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B382" s="1">
+        <v>45</v>
+      </c>
+      <c r="C382" s="1">
+        <v>111</v>
+      </c>
+      <c r="D382" s="1">
+        <v>125</v>
+      </c>
+      <c r="E382" s="1">
+        <v>25</v>
+      </c>
+      <c r="F382" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B383" s="1">
+        <v>16</v>
+      </c>
+      <c r="C383" s="1">
+        <v>224</v>
+      </c>
+      <c r="D383" s="1">
+        <v>105</v>
+      </c>
+      <c r="E383" s="1">
+        <v>15</v>
+      </c>
+      <c r="F383" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B384" s="1">
+        <v>10</v>
+      </c>
+      <c r="C384" s="1">
+        <v>176</v>
+      </c>
+      <c r="D384" s="1">
+        <v>63</v>
+      </c>
+      <c r="E384" s="1">
+        <v>35</v>
+      </c>
+      <c r="F384" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B385" s="1">
+        <v>6</v>
+      </c>
+      <c r="C385" s="1">
+        <v>93</v>
+      </c>
+      <c r="D385" s="1">
+        <v>38</v>
+      </c>
+      <c r="E385" s="1">
+        <v>32</v>
+      </c>
+      <c r="F385" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B386" s="1">
+        <v>12</v>
+      </c>
+      <c r="C386" s="1">
+        <v>102</v>
+      </c>
+      <c r="D386" s="1">
+        <v>28</v>
+      </c>
+      <c r="E386" s="1">
+        <v>3</v>
+      </c>
+      <c r="F386" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B387" s="1">
+        <v>27</v>
+      </c>
+      <c r="C387" s="1">
+        <v>136</v>
+      </c>
+      <c r="D387" s="1">
+        <v>28</v>
+      </c>
+      <c r="E387" s="1">
+        <v>8</v>
+      </c>
+      <c r="F387" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B388" s="1">
+        <v>27</v>
+      </c>
+      <c r="C388" s="1">
+        <v>192</v>
+      </c>
+      <c r="D388" s="1">
+        <v>49</v>
+      </c>
+      <c r="E388" s="1">
+        <v>9</v>
+      </c>
+      <c r="F388" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B389" s="1">
+        <v>24</v>
+      </c>
+      <c r="C389" s="1">
+        <v>113</v>
+      </c>
+      <c r="D389" s="1">
+        <v>47</v>
+      </c>
+      <c r="E389" s="1">
+        <v>10</v>
+      </c>
+      <c r="F389" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B390" s="1">
+        <v>43</v>
+      </c>
+      <c r="C390" s="1">
+        <v>72</v>
+      </c>
+      <c r="D390" s="1">
+        <v>28</v>
+      </c>
+      <c r="E390" s="1">
+        <v>9</v>
+      </c>
+      <c r="F390" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B391" s="1">
+        <v>25</v>
+      </c>
+      <c r="C391" s="1">
+        <v>137</v>
+      </c>
+      <c r="D391" s="1">
+        <v>29</v>
+      </c>
+      <c r="E391" s="1">
+        <v>8</v>
+      </c>
+      <c r="F391" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B392" s="1">
+        <v>19</v>
+      </c>
+      <c r="C392" s="1">
+        <v>95</v>
+      </c>
+      <c r="D392" s="1">
+        <v>62</v>
+      </c>
+      <c r="E392" s="1">
+        <v>5</v>
+      </c>
+      <c r="F392" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B393" s="1">
+        <v>157</v>
+      </c>
+      <c r="C393" s="1">
+        <v>76</v>
+      </c>
+      <c r="D393" s="1">
+        <v>46</v>
+      </c>
+      <c r="E393" s="1">
+        <v>12</v>
+      </c>
+      <c r="F393" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B394" s="1">
+        <v>115</v>
+      </c>
+      <c r="C394" s="1">
+        <v>316</v>
+      </c>
+      <c r="D394" s="1">
+        <v>129</v>
+      </c>
+      <c r="E394" s="1">
+        <v>36</v>
+      </c>
+      <c r="F394" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B395" s="1">
+        <v>112</v>
+      </c>
+      <c r="C395" s="1">
+        <v>136</v>
+      </c>
+      <c r="D395" s="1">
+        <v>68</v>
+      </c>
+      <c r="E395" s="1">
+        <v>9</v>
+      </c>
+      <c r="F395" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B396" s="1">
+        <v>11</v>
+      </c>
+      <c r="C396" s="1">
+        <v>465</v>
+      </c>
+      <c r="D396" s="1">
+        <v>271</v>
+      </c>
+      <c r="E396" s="1">
+        <v>32</v>
+      </c>
+      <c r="F396" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B397" s="1">
+        <v>121</v>
+      </c>
+      <c r="C397" s="1">
+        <v>179</v>
+      </c>
+      <c r="D397" s="1">
+        <v>73</v>
+      </c>
+      <c r="E397" s="1">
+        <v>11</v>
+      </c>
+      <c r="F397" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B398" s="1">
+        <v>128</v>
+      </c>
+      <c r="C398" s="1">
+        <v>213</v>
+      </c>
+      <c r="D398" s="1">
+        <v>35</v>
+      </c>
+      <c r="E398" s="1">
+        <v>17</v>
+      </c>
+      <c r="F398" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B399" s="1">
+        <v>16</v>
+      </c>
+      <c r="C399" s="1">
+        <v>134</v>
+      </c>
+      <c r="D399" s="1">
+        <v>80</v>
+      </c>
+      <c r="E399" s="1">
+        <v>10</v>
+      </c>
+      <c r="F399" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B400" s="1">
+        <v>92</v>
+      </c>
+      <c r="C400" s="1">
+        <v>67</v>
+      </c>
+      <c r="D400" s="1">
+        <v>27</v>
+      </c>
+      <c r="E400" s="1">
+        <v>7</v>
+      </c>
+      <c r="F400" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B401" s="1">
+        <v>17</v>
+      </c>
+      <c r="C401" s="1">
+        <v>118</v>
+      </c>
+      <c r="D401" s="1">
+        <v>21</v>
+      </c>
+      <c r="E401" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F401" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B402" s="1">
+        <v>36</v>
+      </c>
+      <c r="C402" s="1">
+        <v>78</v>
+      </c>
+      <c r="D402" s="1">
+        <v>94</v>
+      </c>
+      <c r="E402" s="1">
+        <v>13</v>
+      </c>
+      <c r="F402" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B403" s="1">
+        <v>6</v>
+      </c>
+      <c r="C403" s="1">
+        <v>476.9</v>
+      </c>
+      <c r="D403" s="1">
+        <v>197</v>
+      </c>
+      <c r="E403" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F403" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B404" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="C404" s="1">
+        <v>117</v>
+      </c>
+      <c r="D404" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E404" s="1">
+        <v>71</v>
+      </c>
+      <c r="F404" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B405" s="1">
+        <v>820</v>
+      </c>
+      <c r="C405" s="1">
+        <v>951</v>
+      </c>
+      <c r="D405" s="1">
+        <v>1740</v>
+      </c>
+      <c r="E405" s="1">
+        <v>867</v>
+      </c>
+      <c r="F405" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B406" s="1">
+        <v>74</v>
+      </c>
+      <c r="C406" s="1">
+        <v>85</v>
+      </c>
+      <c r="D406" s="1">
+        <v>100</v>
+      </c>
+      <c r="E406" s="1">
+        <v>17</v>
+      </c>
+      <c r="F406" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B407" s="1">
+        <v>39.4</v>
+      </c>
+      <c r="C407" s="1">
+        <v>103.9</v>
+      </c>
+      <c r="D407" s="1">
+        <v>65.2</v>
+      </c>
+      <c r="E407" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="F407" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B408" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="C408" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="D408" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="E408" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="F408" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B409" s="1">
+        <v>79</v>
+      </c>
+      <c r="C409" s="1">
+        <v>264</v>
+      </c>
+      <c r="D409" s="1">
+        <v>40</v>
+      </c>
+      <c r="E409" s="1">
+        <v>10</v>
+      </c>
+      <c r="F409" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B410" s="1">
+        <v>5</v>
+      </c>
+      <c r="C410" s="1">
+        <v>234</v>
+      </c>
+      <c r="D410" s="1">
+        <v>14</v>
+      </c>
+      <c r="E410" s="1">
+        <v>5</v>
+      </c>
+      <c r="F410" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B411" s="1">
+        <v>15</v>
+      </c>
+      <c r="C411" s="1">
+        <v>160</v>
+      </c>
+      <c r="D411" s="1">
+        <v>139</v>
+      </c>
+      <c r="E411" s="1">
+        <v>343</v>
+      </c>
+      <c r="F411" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B412" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C412" s="1">
+        <v>52</v>
+      </c>
+      <c r="D412" s="1">
+        <v>6</v>
+      </c>
+      <c r="E412" s="1">
+        <v>67</v>
+      </c>
+      <c r="F412" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B413" s="1">
+        <v>26</v>
+      </c>
+      <c r="C413" s="1">
+        <v>85</v>
+      </c>
+      <c r="D413" s="1">
+        <v>398</v>
+      </c>
+      <c r="E413" s="1">
+        <v>319</v>
+      </c>
+      <c r="F413" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B414" s="1">
+        <v>50</v>
+      </c>
+      <c r="C414" s="1">
+        <v>95</v>
+      </c>
+      <c r="D414" s="1">
+        <v>274</v>
+      </c>
+      <c r="E414" s="1">
+        <v>320</v>
+      </c>
+      <c r="F414" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B415" s="1">
+        <v>31</v>
+      </c>
+      <c r="C415" s="1">
+        <v>246</v>
+      </c>
+      <c r="D415" s="1">
+        <v>63</v>
+      </c>
+      <c r="E415" s="1">
+        <v>714</v>
+      </c>
+      <c r="F415" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B416" s="1">
+        <v>2</v>
+      </c>
+      <c r="C416" s="1">
+        <v>81</v>
+      </c>
+      <c r="D416" s="1">
+        <v>5</v>
+      </c>
+      <c r="E416" s="1">
+        <v>172</v>
+      </c>
+      <c r="F416" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B417" s="1">
+        <v>3</v>
+      </c>
+      <c r="C417" s="1">
+        <v>90</v>
+      </c>
+      <c r="D417" s="1">
+        <v>5</v>
+      </c>
+      <c r="E417" s="1">
+        <v>185</v>
+      </c>
+      <c r="F417" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B418" s="1">
+        <v>16</v>
+      </c>
+      <c r="C418" s="1">
+        <v>35</v>
+      </c>
+      <c r="D418" s="1">
+        <v>98</v>
+      </c>
+      <c r="E418" s="1">
+        <v>64</v>
+      </c>
+      <c r="F418" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B419" s="1">
+        <v>2</v>
+      </c>
+      <c r="C419" s="1">
+        <v>7</v>
+      </c>
+      <c r="D419" s="1">
+        <v>123</v>
+      </c>
+      <c r="E419" s="1">
+        <v>18</v>
+      </c>
+      <c r="F419" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B420" s="1">
+        <v>185</v>
+      </c>
+      <c r="C420" s="1">
+        <v>27</v>
+      </c>
+      <c r="D420" s="1">
+        <v>302</v>
+      </c>
+      <c r="E420" s="1">
+        <v>33</v>
+      </c>
+      <c r="F420" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B421" s="1">
+        <v>14</v>
+      </c>
+      <c r="C421" s="1">
+        <v>42</v>
+      </c>
+      <c r="D421" s="1">
+        <v>15</v>
+      </c>
+      <c r="E421" s="1">
+        <v>73</v>
+      </c>
+      <c r="F421" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B422" s="1">
+        <v>62</v>
+      </c>
+      <c r="C422" s="1">
+        <v>276</v>
+      </c>
+      <c r="D422" s="1">
+        <v>425</v>
+      </c>
+      <c r="E422" s="1">
+        <v>651</v>
+      </c>
+      <c r="F422" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B423" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="C423" s="1">
+        <v>94.9</v>
+      </c>
+      <c r="D423" s="1">
+        <v>460.8</v>
+      </c>
+      <c r="E423" s="1">
+        <v>184.6</v>
+      </c>
+      <c r="F423" s="1">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B424" s="1">
+        <v>119</v>
+      </c>
+      <c r="C424" s="1">
+        <v>286</v>
+      </c>
+      <c r="D424" s="1">
+        <v>670</v>
+      </c>
+      <c r="E424" s="1">
+        <v>934</v>
+      </c>
+      <c r="F424" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B425" s="1">
+        <v>109</v>
+      </c>
+      <c r="C425" s="1">
+        <v>28</v>
+      </c>
+      <c r="D425" s="1">
+        <v>102</v>
+      </c>
+      <c r="E425" s="1">
+        <v>91</v>
+      </c>
+      <c r="F425" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B426" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C426" s="1">
+        <v>81</v>
+      </c>
+      <c r="D426" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E426" s="1">
+        <v>172</v>
+      </c>
+      <c r="F426" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B427" s="1">
+        <v>24</v>
+      </c>
+      <c r="C427" s="1">
+        <v>266</v>
+      </c>
+      <c r="D427" s="1">
+        <v>78</v>
+      </c>
+      <c r="E427" s="1">
+        <v>779</v>
+      </c>
+      <c r="F427" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B428" s="1">
+        <v>24</v>
+      </c>
+      <c r="C428" s="1">
+        <v>258</v>
+      </c>
+      <c r="D428" s="1">
+        <v>80</v>
+      </c>
+      <c r="E428" s="1">
+        <v>741</v>
+      </c>
+      <c r="F428" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B429" s="1">
+        <v>18</v>
+      </c>
+      <c r="C429" s="1">
+        <v>2</v>
+      </c>
+      <c r="D429" s="1">
+        <v>35</v>
+      </c>
+      <c r="E429" s="1">
+        <v>110</v>
+      </c>
+      <c r="F429" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B430" s="1">
+        <v>10</v>
+      </c>
+      <c r="C430" s="1">
+        <v>1</v>
+      </c>
+      <c r="D430" s="1">
+        <v>4</v>
+      </c>
+      <c r="E430" s="1">
+        <v>87</v>
+      </c>
+      <c r="F430" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B431" s="1">
+        <v>8</v>
+      </c>
+      <c r="C431" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D431" s="1">
+        <v>1</v>
+      </c>
+      <c r="E431" s="1">
+        <v>60</v>
+      </c>
+      <c r="F431" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B432" s="1">
+        <v>24</v>
+      </c>
+      <c r="C432" s="1">
+        <v>4</v>
+      </c>
+      <c r="D432" s="1">
+        <v>20</v>
+      </c>
+      <c r="E432" s="1">
+        <v>87</v>
+      </c>
+      <c r="F432" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B433" s="1">
+        <v>21</v>
+      </c>
+      <c r="C433" s="1">
+        <v>4</v>
+      </c>
+      <c r="D433" s="1">
+        <v>42</v>
+      </c>
+      <c r="E433" s="1">
+        <v>92</v>
+      </c>
+      <c r="F433" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B434" s="1">
+        <v>35</v>
+      </c>
+      <c r="C434" s="1">
+        <v>7</v>
+      </c>
+      <c r="D434" s="1">
+        <v>29</v>
+      </c>
+      <c r="E434" s="1">
+        <v>78</v>
+      </c>
+      <c r="F434" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B435" s="1">
+        <v>8</v>
+      </c>
+      <c r="C435" s="1">
+        <v>45</v>
+      </c>
+      <c r="D435" s="1">
+        <v>88</v>
+      </c>
+      <c r="E435" s="1">
+        <v>252</v>
+      </c>
+      <c r="F435" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B436" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C436" s="1">
+        <v>64</v>
+      </c>
+      <c r="D436" s="1">
+        <v>28</v>
+      </c>
+      <c r="E436" s="1">
+        <v>408</v>
+      </c>
+      <c r="F436" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B437" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C437" s="1">
+        <v>309</v>
+      </c>
+      <c r="D437" s="1">
+        <v>100</v>
+      </c>
+      <c r="E437" s="1">
+        <v>1365</v>
+      </c>
+      <c r="F437" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B438" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C438" s="1">
+        <v>170</v>
+      </c>
+      <c r="D438" s="1">
+        <v>106</v>
+      </c>
+      <c r="E438" s="1">
+        <v>871</v>
+      </c>
+      <c r="F438" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B439" s="1">
+        <v>86</v>
+      </c>
+      <c r="C439" s="1">
+        <v>155</v>
+      </c>
+      <c r="D439" s="1">
+        <v>480</v>
+      </c>
+      <c r="E439" s="1">
+        <v>644</v>
+      </c>
+      <c r="F439" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B440" s="1">
+        <v>121</v>
+      </c>
+      <c r="C440" s="1">
+        <v>146</v>
+      </c>
+      <c r="D440" s="1">
+        <v>450</v>
+      </c>
+      <c r="E440" s="1">
+        <v>898</v>
+      </c>
+      <c r="F440" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B441" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C441" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D441" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="E441" s="1">
+        <v>54</v>
+      </c>
+      <c r="F441" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B442" s="1">
+        <v>11</v>
+      </c>
+      <c r="C442" s="1">
+        <v>2</v>
+      </c>
+      <c r="D442" s="1">
+        <v>13</v>
+      </c>
+      <c r="E442" s="1">
+        <v>127</v>
+      </c>
+      <c r="F442" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B443" s="1">
+        <v>4</v>
+      </c>
+      <c r="C443" s="1">
+        <v>1</v>
+      </c>
+      <c r="D443" s="1">
+        <v>2</v>
+      </c>
+      <c r="E443" s="1">
+        <v>63</v>
+      </c>
+      <c r="F443" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B444" s="1">
+        <v>20</v>
+      </c>
+      <c r="C444" s="1">
+        <v>6</v>
+      </c>
+      <c r="D444" s="1">
+        <v>26</v>
+      </c>
+      <c r="E444" s="1">
+        <v>55</v>
+      </c>
+      <c r="F444" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B445" s="1">
+        <v>34</v>
+      </c>
+      <c r="C445" s="1">
+        <v>52</v>
+      </c>
+      <c r="D445" s="1">
+        <v>174</v>
+      </c>
+      <c r="E445" s="1">
+        <v>361</v>
+      </c>
+      <c r="F445" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B446" s="1">
+        <v>7</v>
+      </c>
+      <c r="C446" s="1">
+        <v>23</v>
+      </c>
+      <c r="D446" s="1">
+        <v>31</v>
+      </c>
+      <c r="E446" s="1">
+        <v>148</v>
+      </c>
+      <c r="F446" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B447" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C447" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D447" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E447" s="1">
+        <v>142</v>
+      </c>
+      <c r="F447" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B448" s="1">
+        <v>89</v>
+      </c>
+      <c r="C448" s="1">
+        <v>145</v>
+      </c>
+      <c r="D448" s="1">
+        <v>281</v>
+      </c>
+      <c r="E448" s="1">
+        <v>1216</v>
+      </c>
+      <c r="F448" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B449" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C449" s="1">
+        <v>17</v>
+      </c>
+      <c r="D449" s="1">
+        <v>10</v>
+      </c>
+      <c r="E449" s="1">
+        <v>68</v>
+      </c>
+      <c r="F449" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B450" s="1">
+        <v>39</v>
+      </c>
+      <c r="C450" s="1">
+        <v>538</v>
+      </c>
+      <c r="D450" s="1">
+        <v>525</v>
+      </c>
+      <c r="E450" s="1">
+        <v>2925</v>
+      </c>
+      <c r="F450" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B451" s="1">
+        <v>9</v>
+      </c>
+      <c r="C451" s="1">
+        <v>144</v>
+      </c>
+      <c r="D451" s="1">
+        <v>47</v>
+      </c>
+      <c r="E451" s="1">
+        <v>628</v>
+      </c>
+      <c r="F451" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B452" s="1">
+        <v>53</v>
+      </c>
+      <c r="C452" s="1">
+        <v>25</v>
+      </c>
+      <c r="D452" s="1">
+        <v>189</v>
+      </c>
+      <c r="E452" s="1">
+        <v>295</v>
+      </c>
+      <c r="F452" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B453" s="1">
+        <v>12</v>
+      </c>
+      <c r="C453" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D453" s="1">
+        <v>270</v>
+      </c>
+      <c r="E453" s="1">
+        <v>275</v>
+      </c>
+      <c r="F453" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B454" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C454" s="1">
+        <v>130</v>
+      </c>
+      <c r="D454" s="1">
+        <v>153</v>
+      </c>
+      <c r="E454" s="1">
+        <v>677</v>
+      </c>
+      <c r="F454" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B455" s="1">
+        <v>27</v>
+      </c>
+      <c r="C455" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D455" s="1">
+        <v>51</v>
+      </c>
+      <c r="E455" s="1">
+        <v>153</v>
+      </c>
+      <c r="F455" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B456" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C456" s="1">
+        <v>9</v>
+      </c>
+      <c r="D456" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E456" s="1">
+        <v>57</v>
+      </c>
+      <c r="F456" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B457" s="1">
+        <v>130</v>
+      </c>
+      <c r="C457" s="1">
+        <v>2</v>
+      </c>
+      <c r="D457" s="1">
+        <v>140</v>
+      </c>
+      <c r="E457" s="1">
+        <v>120</v>
+      </c>
+      <c r="F457" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B458" s="1">
+        <v>55</v>
+      </c>
+      <c r="C458" s="1">
+        <v>358</v>
+      </c>
+      <c r="D458" s="1">
+        <v>22</v>
+      </c>
+      <c r="E458" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F458" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B459" s="1">
+        <v>78</v>
+      </c>
+      <c r="C459" s="1">
+        <v>283</v>
+      </c>
+      <c r="D459" s="1">
+        <v>66</v>
+      </c>
+      <c r="E459" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F459" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B460" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C460" s="1">
+        <v>670</v>
+      </c>
+      <c r="D460" s="1">
+        <v>3600</v>
+      </c>
+      <c r="E460" s="1">
+        <v>14</v>
+      </c>
+      <c r="F460" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B461" s="1">
+        <v>6600</v>
+      </c>
+      <c r="C461" s="1">
+        <v>38</v>
+      </c>
+      <c r="D461" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E461" s="1">
+        <v>2</v>
+      </c>
+      <c r="F461" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B462" s="1">
+        <v>2091</v>
+      </c>
+      <c r="C462" s="1">
+        <v>20</v>
+      </c>
+      <c r="D462" s="1">
+        <v>149</v>
+      </c>
+      <c r="E462" s="1">
+        <v>3</v>
+      </c>
+      <c r="F462" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B463" s="1">
+        <v>8200</v>
+      </c>
+      <c r="C463" s="1">
+        <v>250</v>
+      </c>
+      <c r="D463" s="1">
+        <v>3790</v>
+      </c>
+      <c r="E463" s="1">
+        <v>4620</v>
+      </c>
+      <c r="F463" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B464" s="1">
+        <v>75</v>
+      </c>
+      <c r="C464" s="1">
+        <v>7</v>
+      </c>
+      <c r="D464" s="1">
+        <v>15</v>
+      </c>
+      <c r="E464" s="1">
+        <v>14</v>
+      </c>
+      <c r="F464" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B465" s="1">
+        <v>530</v>
+      </c>
+      <c r="C465" s="1">
+        <v>85</v>
+      </c>
+      <c r="D465" s="1">
+        <v>345</v>
+      </c>
+      <c r="E465" s="1">
+        <v>266</v>
+      </c>
+      <c r="F465" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B466" s="1">
+        <v>60</v>
+      </c>
+      <c r="C466" s="1">
+        <v>2</v>
+      </c>
+      <c r="D466" s="1">
+        <v>5</v>
+      </c>
+      <c r="E466" s="1">
+        <v>21</v>
+      </c>
+      <c r="F466" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B467" s="1">
+        <v>5900</v>
+      </c>
+      <c r="C467" s="1">
+        <v>68</v>
+      </c>
+      <c r="D467" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E467" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F467" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B468" s="1">
+        <v>1</v>
+      </c>
+      <c r="C468" s="1">
+        <v>49</v>
+      </c>
+      <c r="D468" s="1">
+        <v>27</v>
+      </c>
+      <c r="E468" s="1">
+        <v>4</v>
+      </c>
+      <c r="F468" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B469" s="1">
+        <v>14</v>
+      </c>
+      <c r="C469" s="1">
+        <v>124</v>
+      </c>
+      <c r="D469" s="1">
+        <v>14</v>
+      </c>
+      <c r="E469" s="1">
+        <v>7</v>
+      </c>
+      <c r="F469" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B470" s="1">
+        <v>3420</v>
+      </c>
+      <c r="C470" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D470" s="1">
+        <v>7870</v>
+      </c>
+      <c r="E470" s="1">
+        <v>6990</v>
+      </c>
+      <c r="F470" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B471" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="C471" s="1">
+        <v>159</v>
+      </c>
+      <c r="D471" s="1">
+        <v>103</v>
+      </c>
+      <c r="E471" s="1">
+        <v>19</v>
+      </c>
+      <c r="F471" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B472" s="1">
+        <v>27</v>
+      </c>
+      <c r="C472" s="1">
+        <v>23</v>
+      </c>
+      <c r="D472" s="1">
+        <v>30</v>
+      </c>
+      <c r="E472" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F472" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B473" s="1">
+        <v>23</v>
+      </c>
+      <c r="C473" s="1">
+        <v>54</v>
+      </c>
+      <c r="D473" s="1">
+        <v>63</v>
+      </c>
+      <c r="E473" s="1">
+        <v>10</v>
+      </c>
+      <c r="F473" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B474" s="1">
+        <v>21</v>
+      </c>
+      <c r="C474" s="1">
+        <v>5</v>
+      </c>
+      <c r="D474" s="1">
+        <v>34</v>
+      </c>
+      <c r="E474" s="1">
+        <v>47</v>
+      </c>
+      <c r="F474" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B475" s="1">
+        <v>160</v>
+      </c>
+      <c r="C475" s="1">
+        <v>33</v>
+      </c>
+      <c r="D475" s="1">
+        <v>130</v>
+      </c>
+      <c r="E475" s="1">
+        <v>96</v>
+      </c>
+      <c r="F475" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B476" s="1">
+        <v>180</v>
+      </c>
+      <c r="C476" s="1">
+        <v>75</v>
+      </c>
+      <c r="D476" s="1">
+        <v>175</v>
+      </c>
+      <c r="E476" s="1">
+        <v>50</v>
+      </c>
+      <c r="F476" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B477" s="1">
+        <v>345</v>
+      </c>
+      <c r="C477" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="D477" s="1">
+        <v>112.3</v>
+      </c>
+      <c r="E477" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="F477" s="1">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B478" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="C478" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="D478" s="1">
+        <v>117</v>
+      </c>
+      <c r="E478" s="1">
+        <v>138</v>
+      </c>
+      <c r="F478" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B479" s="1">
+        <v>181</v>
+      </c>
+      <c r="C479" s="1">
+        <v>41</v>
+      </c>
+      <c r="D479" s="1">
+        <v>262</v>
+      </c>
+      <c r="E479" s="1">
+        <v>28</v>
+      </c>
+      <c r="F479" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B480" s="1">
+        <v>173</v>
+      </c>
+      <c r="C480" s="1">
+        <v>172</v>
+      </c>
+      <c r="D480" s="1">
+        <v>334</v>
+      </c>
+      <c r="E480" s="1">
+        <v>812.5</v>
+      </c>
+      <c r="F480" s="1">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B481" s="1">
+        <v>127</v>
+      </c>
+      <c r="C481" s="1">
+        <v>11</v>
+      </c>
+      <c r="D481" s="1">
+        <v>107</v>
+      </c>
+      <c r="E481" s="1">
+        <v>154</v>
+      </c>
+      <c r="F481" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B482" s="1">
+        <v>60</v>
+      </c>
+      <c r="C482" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="D482" s="1">
+        <v>40</v>
+      </c>
+      <c r="E482" s="1">
+        <v>110</v>
+      </c>
+      <c r="F482" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B483" s="1">
+        <v>220</v>
+      </c>
+      <c r="C483" s="1">
+        <v>42</v>
+      </c>
+      <c r="D483" s="1">
+        <v>340</v>
+      </c>
+      <c r="E483" s="1">
+        <v>480</v>
+      </c>
+      <c r="F483" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B484" s="1">
+        <v>170</v>
+      </c>
+      <c r="C484" s="1">
+        <v>53</v>
+      </c>
+      <c r="D484" s="1">
+        <v>320</v>
+      </c>
+      <c r="E484" s="1">
+        <v>520</v>
+      </c>
+      <c r="F484" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B485" s="1">
+        <v>27</v>
+      </c>
+      <c r="C485" s="1">
+        <v>42</v>
+      </c>
+      <c r="D485" s="1">
+        <v>90</v>
+      </c>
+      <c r="E485" s="1">
+        <v>63</v>
+      </c>
+      <c r="F485" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B486" s="1">
+        <v>56</v>
+      </c>
+      <c r="C486" s="1">
+        <v>96</v>
+      </c>
+      <c r="D486" s="1">
+        <v>286</v>
+      </c>
+      <c r="E486" s="1">
+        <v>928</v>
+      </c>
+      <c r="F486" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B487" s="1">
+        <v>200</v>
+      </c>
+      <c r="C487" s="1">
+        <v>14</v>
+      </c>
+      <c r="D487" s="1">
+        <v>48</v>
+      </c>
+      <c r="E487" s="1">
+        <v>117</v>
+      </c>
+      <c r="F487" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B488" s="1">
+        <v>78</v>
+      </c>
+      <c r="C488" s="1">
+        <v>86</v>
+      </c>
+      <c r="D488" s="1">
+        <v>161</v>
+      </c>
+      <c r="E488" s="1">
+        <v>353</v>
+      </c>
+      <c r="F488" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B489" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="C489" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D489" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E489" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="F489" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B490" s="1">
+        <v>980</v>
+      </c>
+      <c r="C490" s="1">
+        <v>58</v>
+      </c>
+      <c r="D490" s="1">
+        <v>73</v>
+      </c>
+      <c r="E490" s="1">
+        <v>12</v>
+      </c>
+      <c r="F490" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B491" s="1">
+        <v>160</v>
+      </c>
+      <c r="C491" s="1">
+        <v>33</v>
+      </c>
+      <c r="D491" s="1">
+        <v>130</v>
+      </c>
+      <c r="E491" s="1">
+        <v>96</v>
+      </c>
+      <c r="F491" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B492" s="1">
+        <v>650</v>
+      </c>
+      <c r="C492" s="1">
+        <v>35</v>
+      </c>
+      <c r="D492" s="1">
+        <v>53</v>
+      </c>
+      <c r="E492" s="1">
+        <v>20</v>
+      </c>
+      <c r="F492" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B493" s="1">
+        <v>95</v>
+      </c>
+      <c r="C493" s="1">
+        <v>160</v>
+      </c>
+      <c r="D493" s="1">
+        <v>110</v>
+      </c>
+      <c r="E493" s="1">
+        <v>50</v>
+      </c>
+      <c r="F493" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B494" s="1">
+        <v>300</v>
+      </c>
+      <c r="C494" s="1">
+        <v>180</v>
+      </c>
+      <c r="D494" s="1">
+        <v>490</v>
+      </c>
+      <c r="E494" s="1">
+        <v>360</v>
+      </c>
+      <c r="F494" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B495" s="1">
+        <v>200</v>
+      </c>
+      <c r="C495" s="1">
+        <v>250</v>
+      </c>
+      <c r="D495" s="1">
+        <v>700</v>
+      </c>
+      <c r="E495" s="1">
+        <v>740</v>
+      </c>
+      <c r="F495" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B496" s="1">
+        <v>625</v>
+      </c>
+      <c r="C496" s="1">
+        <v>47</v>
+      </c>
+      <c r="D496" s="1">
+        <v>130</v>
+      </c>
+      <c r="E496" s="1">
+        <v>2</v>
+      </c>
+      <c r="F496" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B497" s="1">
+        <v>56</v>
+      </c>
+      <c r="C497" s="1">
+        <v>75</v>
+      </c>
+      <c r="D497" s="1">
+        <v>61</v>
+      </c>
+      <c r="E497" s="1">
+        <v>32</v>
+      </c>
+      <c r="F497" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B498" s="1">
+        <v>1651</v>
+      </c>
+      <c r="C498" s="1">
+        <v>33</v>
+      </c>
+      <c r="D498" s="1">
+        <v>90</v>
+      </c>
+      <c r="E498" s="1">
+        <v>45</v>
+      </c>
+      <c r="F498" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B499" s="1">
+        <v>234.5</v>
+      </c>
+      <c r="C499" s="1">
+        <v>6.11</v>
+      </c>
+      <c r="D499" s="1">
+        <v>30.28</v>
+      </c>
+      <c r="E499" s="1">
+        <v>47.69</v>
+      </c>
+      <c r="F499" s="1">
+        <v>175.88</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B500" s="1">
+        <v>18.34</v>
+      </c>
+      <c r="C500" s="1">
+        <v>3.38</v>
+      </c>
+      <c r="D500" s="1">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="E500" s="1">
+        <v>17.95</v>
+      </c>
+      <c r="F500" s="1">
+        <v>16.420000000000002</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B501" s="1">
+        <v>235.46</v>
+      </c>
+      <c r="C501" s="1">
+        <v>177.52</v>
+      </c>
+      <c r="D501" s="1">
+        <v>333.59</v>
+      </c>
+      <c r="E501" s="1">
+        <v>1201.8499999999999</v>
+      </c>
+      <c r="F501" s="1">
+        <v>148.87</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B502" s="1">
+        <v>505.57</v>
+      </c>
+      <c r="C502" s="1">
+        <v>242.3</v>
+      </c>
+      <c r="D502" s="1">
+        <v>475.35</v>
+      </c>
+      <c r="E502" s="1">
+        <v>524.45000000000005</v>
+      </c>
+      <c r="F502" s="1">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B503" s="1">
+        <v>36</v>
+      </c>
+      <c r="C503" s="1">
+        <v>10</v>
+      </c>
+      <c r="D503" s="1">
+        <v>30</v>
+      </c>
+      <c r="E503" s="1">
+        <v>93</v>
+      </c>
+      <c r="F503" s="1">
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
